--- a/src/main/resources/login.xlsx
+++ b/src/main/resources/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_NOV_training\SeleniumPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AFBCD8-64BF-4683-AC9A-F3F641FB0E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FC1274-29B6-4A6C-AA3F-0DB98C20D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0DB71BBA-AD00-4A65-9FB0-95A4A8C7AF13}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>param_usr1</t>
   </si>
@@ -33,19 +33,34 @@
     <t>param_usr2</t>
   </si>
   <si>
+    <t>paramuserone@yopmail.com</t>
+  </si>
+  <si>
+    <t>paramusertwo@yopmail.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
     <t>param_usr3</t>
   </si>
   <si>
     <t>param_usr4</t>
   </si>
   <si>
-    <t>param_usr5</t>
-  </si>
-  <si>
-    <t>paramuserone@yopmail.com</t>
-  </si>
-  <si>
-    <t>paramusertwo@yopmail.com</t>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>App Development</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>gender2</t>
+  </si>
+  <si>
+    <t>gender1</t>
   </si>
   <si>
     <t>paramuserthree@yopmail.com</t>
@@ -54,17 +69,14 @@
     <t>paramuserfour@yopmail.com</t>
   </si>
   <si>
-    <t>paramuserfive@yopmail.com</t>
-  </si>
-  <si>
-    <t>admin@123</t>
+    <t>Cyber Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +91,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F860075-ADE4-4CEE-A21D-C089068BAD1E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,70 +450,84 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F3538102-7646-4C48-9ED1-3D50CA98D980}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A114AB15-AAE2-45CE-814C-149C50DDF045}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{39E55244-4FA6-42FB-BCD6-E4296B3B6162}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{87F78663-76BE-4A65-8103-277EFCE6A8D3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2529350C-594F-4928-B230-EB124C65B63A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CBA7B294-361E-4448-B6BF-7F7C2F91CF6F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{BFB321C5-FAEE-44E1-9959-EE3A9C3C1ED9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>